--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,105 +439,140 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1382408.2</v>
+        <v>59122.34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58726.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76800.46000000001</v>
+        <v>95731.47</v>
+      </c>
+      <c r="C3" t="n">
+        <v>94707.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59122.34</v>
+        <v>43524.21</v>
+      </c>
+      <c r="C4" t="n">
+        <v>41878.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>95731.47</v>
+        <v>9903.33</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9904.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>11038.79</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11053.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7609.46</v>
+        <v>12715.35</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12684.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>316492.23</v>
+      </c>
+      <c r="C8" t="n">
+        <v>316993.77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36036.76</v>
+        <v>557617.29</v>
+      </c>
+      <c r="C9" t="n">
+        <v>557793.5699999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11863.9</v>
+        <v>94555.05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>94597.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94555.05</v>
+        <v>101134.42</v>
+      </c>
+      <c r="C11" t="n">
+        <v>99614.5</v>
       </c>
     </row>
     <row r="12">
@@ -549,65 +584,86 @@
       <c r="B12" t="n">
         <v>4281.77</v>
       </c>
+      <c r="C12" t="n">
+        <v>4294.73</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12715.35</v>
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>316492.23</v>
+        <v>7609.46</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5890.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>557617.29</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36036.76</v>
+      </c>
+      <c r="C16" t="n">
+        <v>35588.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43524.21</v>
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101134.42</v>
+        <v>11863.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11655.46</v>
       </c>
     </row>
     <row r="19">
@@ -619,25 +675,34 @@
       <c r="B19" t="n">
         <v>20781.83</v>
       </c>
+      <c r="C19" t="n">
+        <v>20730.87</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11038.79</v>
+        <v>76800.46000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>76450.74000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9903.33</v>
+        <v>1382408.2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1376113.33</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,225 +439,296 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1461294.85</v>
+        <v>58726.12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>59541.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73064.74000000001</v>
+        <v>94707.83</v>
+      </c>
+      <c r="C3" t="n">
+        <v>95954.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58726.12</v>
+        <v>7848.23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9008.200000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94707.83</v>
+        <v>77333.28999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>76967.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7848.23</v>
+        <v>41878.61</v>
+      </c>
+      <c r="C6" t="n">
+        <v>42273.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77333.28999999999</v>
+        <v>9904.09</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9899.360000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41878.61</v>
+        <v>11053.06</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11044.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9904.09</v>
+        <v>94597.02</v>
+      </c>
+      <c r="C9" t="n">
+        <v>95044.89999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11053.06</v>
+        <v>4294.73</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4282.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94597.02</v>
+        <v>12684.59</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12689.04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4294.73</v>
+        <v>316993.77</v>
+      </c>
+      <c r="C12" t="n">
+        <v>317202.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12684.59</v>
+        <v>557793.5699999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>557203.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>316993.77</v>
+        <v>99614.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>97736.96000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>557793.5699999999</v>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99614.5</v>
+        <v>5890.31</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6494.77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5890.31</v>
+        <v>35588.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>36244.61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35588.8</v>
+        <v>11655.46</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11703.27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>20730.87</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20804.67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11655.46</v>
+        <v>73064.74000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>73204.74000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20730.87</v>
+        <v>1461294.85</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1464094.87</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -545,9 +545,7 @@
       <c r="B9" t="n">
         <v>94597.02</v>
       </c>
-      <c r="C9" t="n">
-        <v>95044.89999999999</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -558,9 +556,7 @@
       <c r="B10" t="n">
         <v>4294.73</v>
       </c>
-      <c r="C10" t="n">
-        <v>4282.96</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -571,9 +567,7 @@
       <c r="B11" t="n">
         <v>12684.59</v>
       </c>
-      <c r="C11" t="n">
-        <v>12689.04</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -584,9 +578,7 @@
       <c r="B12" t="n">
         <v>316993.77</v>
       </c>
-      <c r="C12" t="n">
-        <v>317202.17</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -597,9 +589,7 @@
       <c r="B13" t="n">
         <v>557793.5699999999</v>
       </c>
-      <c r="C13" t="n">
-        <v>557203.15</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -610,9 +600,7 @@
       <c r="B14" t="n">
         <v>99614.5</v>
       </c>
-      <c r="C14" t="n">
-        <v>97736.96000000001</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -623,9 +611,7 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -715,7 +701,7 @@
         <v>73064.74000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>73204.74000000001</v>
+        <v>29225.82</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +714,7 @@
         <v>1461294.85</v>
       </c>
       <c r="C23" t="n">
-        <v>1464094.87</v>
+        <v>379935.69</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58726.12</v>
+        <v>59550.86</v>
       </c>
       <c r="C2" t="n">
-        <v>59541.42</v>
+        <v>59445.01</v>
       </c>
       <c r="D2" t="n">
-        <v>59520.48</v>
+        <v>61001.98</v>
       </c>
       <c r="E2" t="n">
-        <v>59828.9</v>
+        <v>59443.23</v>
       </c>
       <c r="F2" t="n">
-        <v>59300.69</v>
+        <v>58957.74</v>
       </c>
       <c r="G2" t="n">
-        <v>59635.8</v>
-      </c>
-      <c r="H2" t="n">
-        <v>58922.23</v>
-      </c>
-      <c r="I2" t="n">
-        <v>58796.34</v>
-      </c>
-      <c r="J2" t="n">
-        <v>58904.24</v>
-      </c>
-      <c r="K2" t="n">
-        <v>59179.51</v>
-      </c>
-      <c r="L2" t="n">
-        <v>59894.57</v>
-      </c>
-      <c r="M2" t="n">
-        <v>59550.86</v>
+        <v>58761.66</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94707.83</v>
+        <v>94919.47</v>
       </c>
       <c r="C3" t="n">
-        <v>95954.91</v>
+        <v>95330.87</v>
       </c>
       <c r="D3" t="n">
-        <v>93212.55</v>
+        <v>97484.46000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>93351.17999999999</v>
+        <v>58827.3</v>
       </c>
       <c r="F3" t="n">
-        <v>94346.3</v>
+        <v>57535.8</v>
       </c>
       <c r="G3" t="n">
-        <v>93525.84</v>
-      </c>
-      <c r="H3" t="n">
-        <v>93566.38</v>
-      </c>
-      <c r="I3" t="n">
-        <v>94846.78</v>
-      </c>
-      <c r="J3" t="n">
-        <v>93609.06</v>
-      </c>
-      <c r="K3" t="n">
-        <v>94584.77</v>
-      </c>
-      <c r="L3" t="n">
-        <v>93617.8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>94919.47</v>
+        <v>57072.55</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7848.23</v>
+        <v>8647.969999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9008.200000000001</v>
+        <v>7758.4</v>
       </c>
       <c r="D4" t="n">
-        <v>8636.5</v>
+        <v>8814.040000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.33</v>
+        <v>8767.530000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>8788.790000000001</v>
+        <v>7995.76</v>
       </c>
       <c r="G4" t="n">
-        <v>8373.709999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8395.969999999999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8694.84</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8788.309999999999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8998.459999999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8017.62</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8647.969999999999</v>
+        <v>8087.12</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77333.28999999999</v>
+        <v>77117.58</v>
       </c>
       <c r="C5" t="n">
-        <v>76967.06</v>
+        <v>77051.88</v>
       </c>
       <c r="D5" t="n">
-        <v>76958.50999999999</v>
+        <v>79105.16</v>
       </c>
       <c r="E5" t="n">
-        <v>76903.16</v>
+        <v>77552.92999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>77550.03999999999</v>
+        <v>77283</v>
       </c>
       <c r="G5" t="n">
-        <v>77173.31</v>
-      </c>
-      <c r="H5" t="n">
-        <v>77227.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77106.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>76927.89</v>
-      </c>
-      <c r="K5" t="n">
-        <v>76940.34</v>
-      </c>
-      <c r="L5" t="n">
-        <v>77029.64</v>
-      </c>
-      <c r="M5" t="n">
-        <v>77117.58</v>
+        <v>76971.19</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41878.61</v>
+        <v>43911.71</v>
       </c>
       <c r="C6" t="n">
-        <v>42273.13</v>
+        <v>44718.14</v>
       </c>
       <c r="D6" t="n">
-        <v>36692.47</v>
+        <v>43404.36</v>
       </c>
       <c r="E6" t="n">
-        <v>36744.86</v>
+        <v>40222.88</v>
       </c>
       <c r="F6" t="n">
-        <v>41007.84</v>
+        <v>38543.84</v>
       </c>
       <c r="G6" t="n">
-        <v>39033.47</v>
-      </c>
-      <c r="H6" t="n">
-        <v>38117.31</v>
-      </c>
-      <c r="I6" t="n">
-        <v>39449.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>39945.29</v>
-      </c>
-      <c r="K6" t="n">
-        <v>41153.44</v>
-      </c>
-      <c r="L6" t="n">
-        <v>36456.7</v>
-      </c>
-      <c r="M6" t="n">
-        <v>43911.71</v>
+        <v>42304.05</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9904.09</v>
+        <v>9895.4</v>
       </c>
       <c r="C7" t="n">
-        <v>9899.360000000001</v>
+        <v>9897.51</v>
       </c>
       <c r="D7" t="n">
-        <v>9901.879999999999</v>
+        <v>10161.12</v>
       </c>
       <c r="E7" t="n">
-        <v>9902.690000000001</v>
+        <v>9895.9</v>
       </c>
       <c r="F7" t="n">
-        <v>9901.969999999999</v>
+        <v>9899.48</v>
       </c>
       <c r="G7" t="n">
-        <v>9901.58</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9890.48</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9891.040000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9903.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9894.18</v>
-      </c>
-      <c r="L7" t="n">
-        <v>9901.98</v>
-      </c>
-      <c r="M7" t="n">
-        <v>9895.4</v>
+        <v>9897.18</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11053.06</v>
+        <v>11016.33</v>
       </c>
       <c r="C8" t="n">
-        <v>11044.29</v>
+        <v>11036.17</v>
       </c>
       <c r="D8" t="n">
-        <v>11068.8</v>
+        <v>11327.67</v>
       </c>
       <c r="E8" t="n">
-        <v>11058</v>
+        <v>11057.14</v>
       </c>
       <c r="F8" t="n">
-        <v>11055.8</v>
+        <v>11015.14</v>
       </c>
       <c r="G8" t="n">
-        <v>10998.12</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11042.43</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11041.86</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11047.36</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11035.31</v>
-      </c>
-      <c r="L8" t="n">
-        <v>11005.58</v>
-      </c>
-      <c r="M8" t="n">
-        <v>11016.33</v>
+        <v>11057.75</v>
       </c>
     </row>
     <row r="9">
@@ -803,38 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94597.02</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>94795.78999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>94848.10000000001</v>
+      </c>
       <c r="D9" t="n">
-        <v>94712.52</v>
+        <v>97285.24000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>94559.83</v>
+        <v>94703.32000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>94504.27</v>
+        <v>94839.45</v>
       </c>
       <c r="G9" t="n">
-        <v>94513.64999999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>94682.16</v>
-      </c>
-      <c r="I9" t="n">
-        <v>94690.67999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>94514.81</v>
-      </c>
-      <c r="K9" t="n">
-        <v>94777.97</v>
-      </c>
-      <c r="L9" t="n">
-        <v>94727.08</v>
-      </c>
-      <c r="M9" t="n">
-        <v>94795.78999999999</v>
+        <v>94820.37</v>
       </c>
     </row>
     <row r="10">
@@ -844,38 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4294.73</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>4296.52</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4298.88</v>
+      </c>
       <c r="D10" t="n">
-        <v>4275.52</v>
+        <v>4416.67</v>
       </c>
       <c r="E10" t="n">
-        <v>4301.82</v>
+        <v>4296.86</v>
       </c>
       <c r="F10" t="n">
-        <v>4273.28</v>
+        <v>4300.51</v>
       </c>
       <c r="G10" t="n">
-        <v>4279.97</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4293.63</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4301.93</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4297.14</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4301.22</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4274.57</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4296.52</v>
+        <v>4284.64</v>
       </c>
     </row>
     <row r="11">
@@ -885,38 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12684.59</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>8010.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7978.82</v>
+      </c>
       <c r="D11" t="n">
-        <v>12690.48</v>
+        <v>8215.309999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>12678.4</v>
+        <v>8011.92</v>
       </c>
       <c r="F11" t="n">
-        <v>12723.1</v>
+        <v>7986.21</v>
       </c>
       <c r="G11" t="n">
-        <v>12694.39</v>
-      </c>
-      <c r="H11" t="n">
-        <v>12702.11</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12721.32</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12720.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>12719.72</v>
-      </c>
-      <c r="L11" t="n">
-        <v>12686.55</v>
-      </c>
-      <c r="M11" t="n">
-        <v>8010.6</v>
+        <v>7998.88</v>
       </c>
     </row>
     <row r="12">
@@ -926,38 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>316993.77</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>316236.17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>317055.14</v>
+      </c>
       <c r="D12" t="n">
-        <v>316777.85</v>
+        <v>324914.02</v>
       </c>
       <c r="E12" t="n">
-        <v>316365.78</v>
+        <v>316050.18</v>
       </c>
       <c r="F12" t="n">
-        <v>316001.18</v>
+        <v>316255.82</v>
       </c>
       <c r="G12" t="n">
-        <v>315975.65</v>
-      </c>
-      <c r="H12" t="n">
-        <v>315870.35</v>
-      </c>
-      <c r="I12" t="n">
-        <v>315916.95</v>
-      </c>
-      <c r="J12" t="n">
-        <v>316607.51</v>
-      </c>
-      <c r="K12" t="n">
-        <v>317130.74</v>
-      </c>
-      <c r="L12" t="n">
-        <v>316902.31</v>
-      </c>
-      <c r="M12" t="n">
-        <v>316236.17</v>
+        <v>317251.66</v>
       </c>
     </row>
     <row r="13">
@@ -967,38 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557793.5699999999</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>525036.12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>525203.61</v>
+      </c>
       <c r="D13" t="n">
-        <v>548580.01</v>
+        <v>538714.1</v>
       </c>
       <c r="E13" t="n">
-        <v>546065.21</v>
+        <v>524555.6</v>
       </c>
       <c r="F13" t="n">
-        <v>549096.54</v>
+        <v>525940.75</v>
       </c>
       <c r="G13" t="n">
-        <v>549029.84</v>
-      </c>
-      <c r="H13" t="n">
-        <v>533949.39</v>
-      </c>
-      <c r="I13" t="n">
-        <v>534149.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>533907.6899999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>526715.36</v>
-      </c>
-      <c r="L13" t="n">
-        <v>524269.7</v>
-      </c>
-      <c r="M13" t="n">
-        <v>525036.12</v>
+        <v>525443.8199999999</v>
       </c>
     </row>
     <row r="14">
@@ -1008,38 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99614.5</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>100433.58</v>
+      </c>
+      <c r="C14" t="n">
+        <v>99133.91</v>
+      </c>
       <c r="D14" t="n">
-        <v>100822.19</v>
+        <v>78157.74000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>99007.10000000001</v>
+        <v>65700.10000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>99027.23</v>
+        <v>11609.39</v>
       </c>
       <c r="G14" t="n">
-        <v>100339.03</v>
-      </c>
-      <c r="H14" t="n">
-        <v>98210.03</v>
-      </c>
-      <c r="I14" t="n">
-        <v>99391.94</v>
-      </c>
-      <c r="J14" t="n">
-        <v>98728.91</v>
-      </c>
-      <c r="K14" t="n">
-        <v>99177.11</v>
-      </c>
-      <c r="L14" t="n">
-        <v>100127.22</v>
-      </c>
-      <c r="M14" t="n">
-        <v>100433.58</v>
+        <v>12566.26</v>
       </c>
     </row>
     <row r="15">
@@ -1051,7 +799,9 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
@@ -1062,24 +812,6 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1090,40 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5890.31</v>
+        <v>6508.56</v>
       </c>
       <c r="C16" t="n">
-        <v>6494.77</v>
+        <v>6590.48</v>
       </c>
       <c r="D16" t="n">
-        <v>7096.01</v>
+        <v>6476.79</v>
       </c>
       <c r="E16" t="n">
-        <v>7466.64</v>
+        <v>5926.49</v>
       </c>
       <c r="F16" t="n">
-        <v>6481.33</v>
+        <v>6449.08</v>
       </c>
       <c r="G16" t="n">
-        <v>6329.17</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6136.53</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6371.15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6449.26</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6452.81</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6627.78</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6508.56</v>
+        <v>7338.65</v>
       </c>
     </row>
     <row r="17">
@@ -1133,40 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>804.88</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>812.36</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>806.04</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>768.67</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>618.63</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>901.0599999999999</v>
-      </c>
-      <c r="J17" t="n">
-        <v>876.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>849</v>
-      </c>
-      <c r="L17" t="n">
-        <v>828.74</v>
-      </c>
-      <c r="M17" t="n">
-        <v>804.88</v>
+        <v>658.99</v>
       </c>
     </row>
     <row r="18">
@@ -1176,40 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35588.8</v>
+        <v>25221.15</v>
       </c>
       <c r="C18" t="n">
-        <v>36244.61</v>
+        <v>26146.42</v>
       </c>
       <c r="D18" t="n">
-        <v>29979.03</v>
+        <v>25880.68</v>
       </c>
       <c r="E18" t="n">
-        <v>30439.62</v>
+        <v>26679.36</v>
       </c>
       <c r="F18" t="n">
-        <v>30236.09</v>
+        <v>25349.8</v>
       </c>
       <c r="G18" t="n">
-        <v>26015.97</v>
-      </c>
-      <c r="H18" t="n">
-        <v>25681.86</v>
-      </c>
-      <c r="I18" t="n">
-        <v>26102.63</v>
-      </c>
-      <c r="J18" t="n">
-        <v>26023.52</v>
-      </c>
-      <c r="K18" t="n">
-        <v>25910.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>26036.98</v>
-      </c>
-      <c r="M18" t="n">
-        <v>25221.15</v>
+        <v>26537.61</v>
       </c>
     </row>
     <row r="19">
@@ -1236,24 +914,6 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1262,151 +922,72 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11655.46</v>
+        <v>11881.19</v>
       </c>
       <c r="C20" t="n">
-        <v>11703.27</v>
+        <v>11739.72</v>
       </c>
       <c r="D20" t="n">
-        <v>11695.21</v>
+        <v>11956.28</v>
       </c>
       <c r="E20" t="n">
-        <v>11883.09</v>
+        <v>11866.16</v>
       </c>
       <c r="F20" t="n">
-        <v>11805.07</v>
+        <v>11954.23</v>
       </c>
       <c r="G20" t="n">
-        <v>11924.04</v>
-      </c>
-      <c r="H20" t="n">
-        <v>11686.62</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11630.75</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11737.71</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11665.11</v>
-      </c>
-      <c r="L20" t="n">
-        <v>11820.16</v>
-      </c>
-      <c r="M20" t="n">
-        <v>11881.19</v>
+        <v>11947.07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20730.87</v>
+        <v>73593.89</v>
       </c>
       <c r="C21" t="n">
-        <v>20804.67</v>
+        <v>73633.97</v>
       </c>
       <c r="D21" t="n">
-        <v>21025.98</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+        <v>74111.67</v>
+      </c>
+      <c r="E21" t="n">
+        <v>69701.35000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>66659.72</v>
+      </c>
+      <c r="G21" t="n">
+        <v>66999.97</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73064.74000000001</v>
+        <v>1398283.88</v>
       </c>
       <c r="C22" t="n">
-        <v>29225.82</v>
+        <v>1399045.42</v>
       </c>
       <c r="D22" t="n">
-        <v>72182.3</v>
+        <v>1408121.66</v>
       </c>
       <c r="E22" t="n">
-        <v>74689.66</v>
+        <v>1324325.57</v>
       </c>
       <c r="F22" t="n">
-        <v>75057.87</v>
+        <v>1266534.63</v>
       </c>
       <c r="G22" t="n">
-        <v>74723.34</v>
-      </c>
-      <c r="H22" t="n">
-        <v>73703.92999999999</v>
-      </c>
-      <c r="I22" t="n">
-        <v>74000.27</v>
-      </c>
-      <c r="J22" t="n">
-        <v>73946.78999999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>73762.39999999999</v>
-      </c>
-      <c r="L22" t="n">
-        <v>73380.25999999999</v>
-      </c>
-      <c r="M22" t="n">
-        <v>73593.89</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1461294.85</v>
-      </c>
-      <c r="C23" t="n">
-        <v>379935.69</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1443645.99</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1419103.61</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1426099.52</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1419743.54</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1400374.68</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1406005.07</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1404989.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1401485.55</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1394224.98</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1398283.88</v>
+        <v>1272999.45</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>58726.12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>59541.42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59520.48</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59828.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>59300.69</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59635.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>58922.23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>58796.34</v>
+      </c>
+      <c r="J2" t="n">
+        <v>58904.24</v>
+      </c>
+      <c r="K2" t="n">
+        <v>59179.51</v>
+      </c>
+      <c r="L2" t="n">
+        <v>59894.57</v>
+      </c>
+      <c r="M2" t="n">
         <v>59550.86</v>
-      </c>
-      <c r="C2" t="n">
-        <v>59445.01</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61001.98</v>
-      </c>
-      <c r="E2" t="n">
-        <v>59443.23</v>
-      </c>
-      <c r="F2" t="n">
-        <v>58957.74</v>
-      </c>
-      <c r="G2" t="n">
-        <v>58761.66</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>94707.83</v>
+      </c>
+      <c r="C3" t="n">
+        <v>95954.91</v>
+      </c>
+      <c r="D3" t="n">
+        <v>93212.55</v>
+      </c>
+      <c r="E3" t="n">
+        <v>93351.17999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94346.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>93525.84</v>
+      </c>
+      <c r="H3" t="n">
+        <v>93566.38</v>
+      </c>
+      <c r="I3" t="n">
+        <v>94846.78</v>
+      </c>
+      <c r="J3" t="n">
+        <v>93609.06</v>
+      </c>
+      <c r="K3" t="n">
+        <v>94584.77</v>
+      </c>
+      <c r="L3" t="n">
+        <v>93617.8</v>
+      </c>
+      <c r="M3" t="n">
         <v>94919.47</v>
-      </c>
-      <c r="C3" t="n">
-        <v>95330.87</v>
-      </c>
-      <c r="D3" t="n">
-        <v>97484.46000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>58827.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>57535.8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>57072.55</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>7848.23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9008.200000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8636.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8547.33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8788.790000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8373.709999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8395.969999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8694.84</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8788.309999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8998.459999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8017.62</v>
+      </c>
+      <c r="M4" t="n">
         <v>8647.969999999999</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7758.4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8814.040000000001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8767.530000000001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7995.76</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8087.12</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>77333.28999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>76967.06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>76958.50999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>76903.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>77550.03999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>77173.31</v>
+      </c>
+      <c r="H5" t="n">
+        <v>77227.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77106.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>76927.89</v>
+      </c>
+      <c r="K5" t="n">
+        <v>76940.34</v>
+      </c>
+      <c r="L5" t="n">
+        <v>77029.64</v>
+      </c>
+      <c r="M5" t="n">
         <v>77117.58</v>
-      </c>
-      <c r="C5" t="n">
-        <v>77051.88</v>
-      </c>
-      <c r="D5" t="n">
-        <v>79105.16</v>
-      </c>
-      <c r="E5" t="n">
-        <v>77552.92999999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>77283</v>
-      </c>
-      <c r="G5" t="n">
-        <v>76971.19</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>41878.61</v>
+      </c>
+      <c r="C6" t="n">
+        <v>42273.13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36692.47</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36744.86</v>
+      </c>
+      <c r="F6" t="n">
+        <v>41007.84</v>
+      </c>
+      <c r="G6" t="n">
+        <v>39033.47</v>
+      </c>
+      <c r="H6" t="n">
+        <v>38117.31</v>
+      </c>
+      <c r="I6" t="n">
+        <v>39449.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>39945.29</v>
+      </c>
+      <c r="K6" t="n">
+        <v>41153.44</v>
+      </c>
+      <c r="L6" t="n">
+        <v>36456.7</v>
+      </c>
+      <c r="M6" t="n">
         <v>43911.71</v>
-      </c>
-      <c r="C6" t="n">
-        <v>44718.14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43404.36</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40222.88</v>
-      </c>
-      <c r="F6" t="n">
-        <v>38543.84</v>
-      </c>
-      <c r="G6" t="n">
-        <v>42304.05</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>9904.09</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9899.360000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9901.879999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9902.690000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9901.969999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9901.58</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9890.48</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9891.040000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9903.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9894.18</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9901.98</v>
+      </c>
+      <c r="M7" t="n">
         <v>9895.4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9897.51</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10161.12</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9895.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9899.48</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9897.18</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>11053.06</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11044.29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11068.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11058</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11055.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10998.12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11042.43</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11041.86</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11047.36</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11035.31</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11005.58</v>
+      </c>
+      <c r="M8" t="n">
         <v>11016.33</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11036.17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11327.67</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11057.14</v>
-      </c>
-      <c r="F8" t="n">
-        <v>11015.14</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11057.75</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,38 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>94597.02</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>94712.52</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94559.83</v>
+      </c>
+      <c r="F9" t="n">
+        <v>94504.27</v>
+      </c>
+      <c r="G9" t="n">
+        <v>94513.64999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>94682.16</v>
+      </c>
+      <c r="I9" t="n">
+        <v>94690.67999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>94514.81</v>
+      </c>
+      <c r="K9" t="n">
+        <v>94777.97</v>
+      </c>
+      <c r="L9" t="n">
+        <v>94727.08</v>
+      </c>
+      <c r="M9" t="n">
         <v>94795.78999999999</v>
-      </c>
-      <c r="C9" t="n">
-        <v>94848.10000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>97285.24000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>94703.32000000001</v>
-      </c>
-      <c r="F9" t="n">
-        <v>94839.45</v>
-      </c>
-      <c r="G9" t="n">
-        <v>94820.37</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +844,38 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>4294.73</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>4275.52</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4301.82</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4273.28</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4279.97</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4293.63</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4301.93</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4297.14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4301.22</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4274.57</v>
+      </c>
+      <c r="M10" t="n">
         <v>4296.52</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4298.88</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4416.67</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4296.86</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4300.51</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4284.64</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +885,38 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>12684.59</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>12690.48</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12678.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12723.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12694.39</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12702.11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12721.32</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12720.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12719.72</v>
+      </c>
+      <c r="L11" t="n">
+        <v>12686.55</v>
+      </c>
+      <c r="M11" t="n">
         <v>8010.6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7978.82</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8215.309999999999</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8011.92</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7986.21</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7998.88</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +926,38 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>316993.77</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>316777.85</v>
+      </c>
+      <c r="E12" t="n">
+        <v>316365.78</v>
+      </c>
+      <c r="F12" t="n">
+        <v>316001.18</v>
+      </c>
+      <c r="G12" t="n">
+        <v>315975.65</v>
+      </c>
+      <c r="H12" t="n">
+        <v>315870.35</v>
+      </c>
+      <c r="I12" t="n">
+        <v>315916.95</v>
+      </c>
+      <c r="J12" t="n">
+        <v>316607.51</v>
+      </c>
+      <c r="K12" t="n">
+        <v>317130.74</v>
+      </c>
+      <c r="L12" t="n">
+        <v>316902.31</v>
+      </c>
+      <c r="M12" t="n">
         <v>316236.17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>317055.14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>324914.02</v>
-      </c>
-      <c r="E12" t="n">
-        <v>316050.18</v>
-      </c>
-      <c r="F12" t="n">
-        <v>316255.82</v>
-      </c>
-      <c r="G12" t="n">
-        <v>317251.66</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +967,38 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>557793.5699999999</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>548580.01</v>
+      </c>
+      <c r="E13" t="n">
+        <v>546065.21</v>
+      </c>
+      <c r="F13" t="n">
+        <v>549096.54</v>
+      </c>
+      <c r="G13" t="n">
+        <v>549029.84</v>
+      </c>
+      <c r="H13" t="n">
+        <v>533949.39</v>
+      </c>
+      <c r="I13" t="n">
+        <v>534149.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>533907.6899999999</v>
+      </c>
+      <c r="K13" t="n">
+        <v>526715.36</v>
+      </c>
+      <c r="L13" t="n">
+        <v>524269.7</v>
+      </c>
+      <c r="M13" t="n">
         <v>525036.12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>525203.61</v>
-      </c>
-      <c r="D13" t="n">
-        <v>538714.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>524555.6</v>
-      </c>
-      <c r="F13" t="n">
-        <v>525940.75</v>
-      </c>
-      <c r="G13" t="n">
-        <v>525443.8199999999</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1008,38 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>99614.5</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>100822.19</v>
+      </c>
+      <c r="E14" t="n">
+        <v>99007.10000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>99027.23</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100339.03</v>
+      </c>
+      <c r="H14" t="n">
+        <v>98210.03</v>
+      </c>
+      <c r="I14" t="n">
+        <v>99391.94</v>
+      </c>
+      <c r="J14" t="n">
+        <v>98728.91</v>
+      </c>
+      <c r="K14" t="n">
+        <v>99177.11</v>
+      </c>
+      <c r="L14" t="n">
+        <v>100127.22</v>
+      </c>
+      <c r="M14" t="n">
         <v>100433.58</v>
-      </c>
-      <c r="C14" t="n">
-        <v>99133.91</v>
-      </c>
-      <c r="D14" t="n">
-        <v>78157.74000000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>65700.10000000001</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11609.39</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12566.26</v>
       </c>
     </row>
     <row r="15">
@@ -799,9 +1051,7 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
         <v>0</v>
       </c>
@@ -812,6 +1062,24 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -822,22 +1090,40 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>5890.31</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6494.77</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7096.01</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7466.64</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6481.33</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6329.17</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6136.53</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6371.15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6449.26</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6452.81</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6627.78</v>
+      </c>
+      <c r="M16" t="n">
         <v>6508.56</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6590.48</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6476.79</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5926.49</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6449.08</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7338.65</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1133,40 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>901.0599999999999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>876.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>849</v>
+      </c>
+      <c r="L17" t="n">
+        <v>828.74</v>
+      </c>
+      <c r="M17" t="n">
         <v>804.88</v>
-      </c>
-      <c r="C17" t="n">
-        <v>812.36</v>
-      </c>
-      <c r="D17" t="n">
-        <v>806.04</v>
-      </c>
-      <c r="E17" t="n">
-        <v>768.67</v>
-      </c>
-      <c r="F17" t="n">
-        <v>618.63</v>
-      </c>
-      <c r="G17" t="n">
-        <v>658.99</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1176,40 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>35588.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>36244.61</v>
+      </c>
+      <c r="D18" t="n">
+        <v>29979.03</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30439.62</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30236.09</v>
+      </c>
+      <c r="G18" t="n">
+        <v>26015.97</v>
+      </c>
+      <c r="H18" t="n">
+        <v>25681.86</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26102.63</v>
+      </c>
+      <c r="J18" t="n">
+        <v>26023.52</v>
+      </c>
+      <c r="K18" t="n">
+        <v>25910.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>26036.98</v>
+      </c>
+      <c r="M18" t="n">
         <v>25221.15</v>
-      </c>
-      <c r="C18" t="n">
-        <v>26146.42</v>
-      </c>
-      <c r="D18" t="n">
-        <v>25880.68</v>
-      </c>
-      <c r="E18" t="n">
-        <v>26679.36</v>
-      </c>
-      <c r="F18" t="n">
-        <v>25349.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>26537.61</v>
       </c>
     </row>
     <row r="19">
@@ -914,6 +1236,24 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -922,72 +1262,151 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>11655.46</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11703.27</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11695.21</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11883.09</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11805.07</v>
+      </c>
+      <c r="G20" t="n">
+        <v>11924.04</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11686.62</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11630.75</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11737.71</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11665.11</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11820.16</v>
+      </c>
+      <c r="M20" t="n">
         <v>11881.19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11739.72</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11956.28</v>
-      </c>
-      <c r="E20" t="n">
-        <v>11866.16</v>
-      </c>
-      <c r="F20" t="n">
-        <v>11954.23</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11947.07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73593.89</v>
+        <v>20730.87</v>
       </c>
       <c r="C21" t="n">
-        <v>73633.97</v>
+        <v>20804.67</v>
       </c>
       <c r="D21" t="n">
-        <v>74111.67</v>
-      </c>
-      <c r="E21" t="n">
-        <v>69701.35000000001</v>
-      </c>
-      <c r="F21" t="n">
-        <v>66659.72</v>
-      </c>
-      <c r="G21" t="n">
-        <v>66999.97</v>
-      </c>
+        <v>21025.98</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>73064.74000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>29225.82</v>
+      </c>
+      <c r="D22" t="n">
+        <v>72182.3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>74689.66</v>
+      </c>
+      <c r="F22" t="n">
+        <v>75057.87</v>
+      </c>
+      <c r="G22" t="n">
+        <v>74723.34</v>
+      </c>
+      <c r="H22" t="n">
+        <v>73703.92999999999</v>
+      </c>
+      <c r="I22" t="n">
+        <v>74000.27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>73946.78999999999</v>
+      </c>
+      <c r="K22" t="n">
+        <v>73762.39999999999</v>
+      </c>
+      <c r="L22" t="n">
+        <v>73380.25999999999</v>
+      </c>
+      <c r="M22" t="n">
+        <v>73593.89</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
+        <v>1461294.85</v>
+      </c>
+      <c r="C23" t="n">
+        <v>379935.69</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1443645.99</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1419103.61</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1426099.52</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1419743.54</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1400374.68</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1406005.07</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1404989.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1401485.55</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1394224.98</v>
+      </c>
+      <c r="M23" t="n">
         <v>1398283.88</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1399045.42</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1408121.66</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1324325.57</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1266534.63</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1272999.45</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/SAMI.xlsx
+++ b/backend/src/excel_handler/files/SAMI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58726.12</v>
+        <v>59550.86</v>
       </c>
       <c r="C2" t="n">
-        <v>59541.42</v>
+        <v>59445.01</v>
       </c>
       <c r="D2" t="n">
-        <v>59520.48</v>
+        <v>61001.98</v>
       </c>
       <c r="E2" t="n">
-        <v>59828.9</v>
+        <v>59443.23</v>
       </c>
       <c r="F2" t="n">
-        <v>59300.69</v>
+        <v>58957.74</v>
       </c>
       <c r="G2" t="n">
-        <v>59635.8</v>
+        <v>58761.66</v>
       </c>
       <c r="H2" t="n">
-        <v>58922.23</v>
+        <v>59134.3</v>
       </c>
       <c r="I2" t="n">
-        <v>58796.34</v>
+        <v>59468.93</v>
       </c>
       <c r="J2" t="n">
-        <v>58904.24</v>
+        <v>59651.81</v>
       </c>
       <c r="K2" t="n">
-        <v>59179.51</v>
+        <v>59040.26</v>
       </c>
       <c r="L2" t="n">
-        <v>59894.57</v>
+        <v>59516.91</v>
       </c>
       <c r="M2" t="n">
-        <v>59550.86</v>
+        <v>59443.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>59625.54</v>
+      </c>
+      <c r="O2" t="n">
+        <v>59739.59</v>
+      </c>
+      <c r="P2" t="n">
+        <v>59660.99</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>59056.03</v>
+      </c>
+      <c r="R2" t="n">
+        <v>59439.21</v>
+      </c>
+      <c r="S2" t="n">
+        <v>59704.93</v>
+      </c>
+      <c r="T2" t="n">
+        <v>61094.64</v>
+      </c>
+      <c r="U2" t="n">
+        <v>59275.04</v>
+      </c>
+      <c r="V2" t="n">
+        <v>59500.22</v>
+      </c>
+      <c r="W2" t="n">
+        <v>59264.55</v>
+      </c>
+      <c r="X2" t="n">
+        <v>58890.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>60038.95</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>58920.28</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>58883.44</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94707.83</v>
+        <v>94919.47</v>
       </c>
       <c r="C3" t="n">
-        <v>95954.91</v>
+        <v>95330.87</v>
       </c>
       <c r="D3" t="n">
-        <v>93212.55</v>
+        <v>97484.46000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>93351.17999999999</v>
+        <v>58827.3</v>
       </c>
       <c r="F3" t="n">
-        <v>94346.3</v>
+        <v>57535.8</v>
       </c>
       <c r="G3" t="n">
-        <v>93525.84</v>
+        <v>57072.55</v>
       </c>
       <c r="H3" t="n">
-        <v>93566.38</v>
+        <v>58118.48</v>
       </c>
       <c r="I3" t="n">
-        <v>94846.78</v>
+        <v>57493.46</v>
       </c>
       <c r="J3" t="n">
-        <v>93609.06</v>
+        <v>58512.72</v>
       </c>
       <c r="K3" t="n">
-        <v>94584.77</v>
+        <v>57646.68</v>
       </c>
       <c r="L3" t="n">
-        <v>93617.8</v>
+        <v>57165.05</v>
       </c>
       <c r="M3" t="n">
-        <v>94919.47</v>
+        <v>57613.83</v>
+      </c>
+      <c r="N3" t="n">
+        <v>58688.18</v>
+      </c>
+      <c r="O3" t="n">
+        <v>58755.07</v>
+      </c>
+      <c r="P3" t="n">
+        <v>57164.68</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>58237.92</v>
+      </c>
+      <c r="R3" t="n">
+        <v>58642.13</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57861.84</v>
+      </c>
+      <c r="T3" t="n">
+        <v>58888.67</v>
+      </c>
+      <c r="U3" t="n">
+        <v>57053.55</v>
+      </c>
+      <c r="V3" t="n">
+        <v>57800.56</v>
+      </c>
+      <c r="W3" t="n">
+        <v>56829.59</v>
+      </c>
+      <c r="X3" t="n">
+        <v>57087.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>58034.72</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>57374.77</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>58149.47</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7848.23</v>
+        <v>8647.969999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9008.200000000001</v>
+        <v>7758.4</v>
       </c>
       <c r="D4" t="n">
-        <v>8636.5</v>
+        <v>8814.040000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.33</v>
+        <v>8767.530000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>8788.790000000001</v>
+        <v>7995.76</v>
       </c>
       <c r="G4" t="n">
-        <v>8373.709999999999</v>
+        <v>8087.12</v>
       </c>
       <c r="H4" t="n">
-        <v>8395.969999999999</v>
+        <v>8348.459999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>8694.84</v>
+        <v>8312.639999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>8788.309999999999</v>
+        <v>8694.41</v>
       </c>
       <c r="K4" t="n">
-        <v>8998.459999999999</v>
+        <v>8789.24</v>
       </c>
       <c r="L4" t="n">
-        <v>8017.62</v>
+        <v>8510.209999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>8647.969999999999</v>
+        <v>8452.23</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8881.139999999999</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7934.24</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8394.48</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8014.11</v>
+      </c>
+      <c r="R4" t="n">
+        <v>8496.4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7898.91</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8925.049999999999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7856.38</v>
+      </c>
+      <c r="V4" t="n">
+        <v>8862.870000000001</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8174.64</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8276.110000000001</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8991.51</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9027.309999999999</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8990.639999999999</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77333.28999999999</v>
+        <v>77117.58</v>
       </c>
       <c r="C5" t="n">
-        <v>76967.06</v>
+        <v>77051.88</v>
       </c>
       <c r="D5" t="n">
-        <v>76958.50999999999</v>
+        <v>79105.16</v>
       </c>
       <c r="E5" t="n">
-        <v>76903.16</v>
+        <v>77552.92999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>77550.03999999999</v>
+        <v>77283</v>
       </c>
       <c r="G5" t="n">
-        <v>77173.31</v>
+        <v>76971.19</v>
       </c>
       <c r="H5" t="n">
-        <v>77227.2</v>
+        <v>76991.85000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>77106.2</v>
+        <v>77435.64</v>
       </c>
       <c r="J5" t="n">
-        <v>76927.89</v>
+        <v>77527.57000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>76940.34</v>
+        <v>77298.75</v>
       </c>
       <c r="L5" t="n">
-        <v>77029.64</v>
+        <v>77377.42</v>
       </c>
       <c r="M5" t="n">
-        <v>77117.58</v>
+        <v>77292.87</v>
+      </c>
+      <c r="N5" t="n">
+        <v>77034.86</v>
+      </c>
+      <c r="O5" t="n">
+        <v>77265.59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>77338.61</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>77210.3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>77014.84</v>
+      </c>
+      <c r="S5" t="n">
+        <v>77253.23</v>
+      </c>
+      <c r="T5" t="n">
+        <v>79089.06</v>
+      </c>
+      <c r="U5" t="n">
+        <v>76915.63</v>
+      </c>
+      <c r="V5" t="n">
+        <v>77358.72</v>
+      </c>
+      <c r="W5" t="n">
+        <v>77220.92</v>
+      </c>
+      <c r="X5" t="n">
+        <v>76848.36</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>77526.91</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>76971.86</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>77397.39999999999</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41878.61</v>
+        <v>43911.71</v>
       </c>
       <c r="C6" t="n">
-        <v>42273.13</v>
+        <v>44718.14</v>
       </c>
       <c r="D6" t="n">
-        <v>36692.47</v>
+        <v>43404.36</v>
       </c>
       <c r="E6" t="n">
-        <v>36744.86</v>
+        <v>40222.88</v>
       </c>
       <c r="F6" t="n">
-        <v>41007.84</v>
+        <v>38543.84</v>
       </c>
       <c r="G6" t="n">
-        <v>39033.47</v>
+        <v>42304.05</v>
       </c>
       <c r="H6" t="n">
-        <v>38117.31</v>
+        <v>39604.57</v>
       </c>
       <c r="I6" t="n">
-        <v>39449.7</v>
+        <v>38125.86</v>
       </c>
       <c r="J6" t="n">
-        <v>39945.29</v>
+        <v>38914.25</v>
       </c>
       <c r="K6" t="n">
-        <v>41153.44</v>
+        <v>42631.97</v>
       </c>
       <c r="L6" t="n">
-        <v>36456.7</v>
+        <v>42766.3</v>
       </c>
       <c r="M6" t="n">
-        <v>43911.71</v>
+        <v>38331.31</v>
+      </c>
+      <c r="N6" t="n">
+        <v>42064.09</v>
+      </c>
+      <c r="O6" t="n">
+        <v>43217.37</v>
+      </c>
+      <c r="P6" t="n">
+        <v>39255.41</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>42242.48</v>
+      </c>
+      <c r="R6" t="n">
+        <v>42521.16</v>
+      </c>
+      <c r="S6" t="n">
+        <v>39367.46</v>
+      </c>
+      <c r="T6" t="n">
+        <v>40790.79</v>
+      </c>
+      <c r="U6" t="n">
+        <v>41636.74</v>
+      </c>
+      <c r="V6" t="n">
+        <v>39945.15</v>
+      </c>
+      <c r="W6" t="n">
+        <v>40354.83</v>
+      </c>
+      <c r="X6" t="n">
+        <v>39745.96</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>40524.73</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>39816.57</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>40819.4</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9904.09</v>
+        <v>9895.4</v>
       </c>
       <c r="C7" t="n">
-        <v>9899.360000000001</v>
+        <v>9897.51</v>
       </c>
       <c r="D7" t="n">
-        <v>9901.879999999999</v>
+        <v>10161.12</v>
       </c>
       <c r="E7" t="n">
-        <v>9902.690000000001</v>
+        <v>9895.9</v>
       </c>
       <c r="F7" t="n">
-        <v>9901.969999999999</v>
+        <v>9899.48</v>
       </c>
       <c r="G7" t="n">
-        <v>9901.58</v>
+        <v>9897.18</v>
       </c>
       <c r="H7" t="n">
-        <v>9890.48</v>
+        <v>9898.02</v>
       </c>
       <c r="I7" t="n">
-        <v>9891.040000000001</v>
+        <v>9896.74</v>
       </c>
       <c r="J7" t="n">
-        <v>9903.5</v>
+        <v>9893.01</v>
       </c>
       <c r="K7" t="n">
-        <v>9894.18</v>
+        <v>9892.77</v>
       </c>
       <c r="L7" t="n">
-        <v>9901.98</v>
+        <v>9888.620000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>9895.4</v>
+        <v>9889.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9898.129999999999</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9900.209999999999</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9901.66</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>9900.389999999999</v>
+      </c>
+      <c r="R7" t="n">
+        <v>9889.99</v>
+      </c>
+      <c r="S7" t="n">
+        <v>9900</v>
+      </c>
+      <c r="T7" t="n">
+        <v>10083.58</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9891.780000000001</v>
+      </c>
+      <c r="V7" t="n">
+        <v>9892.440000000001</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9887.139999999999</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9891.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9893.690000000001</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9895.17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>9886.66</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11053.06</v>
+        <v>11016.33</v>
       </c>
       <c r="C8" t="n">
-        <v>11044.29</v>
+        <v>11036.17</v>
       </c>
       <c r="D8" t="n">
-        <v>11068.8</v>
+        <v>11327.67</v>
       </c>
       <c r="E8" t="n">
-        <v>11058</v>
+        <v>11057.14</v>
       </c>
       <c r="F8" t="n">
-        <v>11055.8</v>
+        <v>11015.14</v>
       </c>
       <c r="G8" t="n">
-        <v>10998.12</v>
+        <v>11057.75</v>
       </c>
       <c r="H8" t="n">
-        <v>11042.43</v>
+        <v>11027.96</v>
       </c>
       <c r="I8" t="n">
-        <v>11041.86</v>
+        <v>11060.42</v>
       </c>
       <c r="J8" t="n">
-        <v>11047.36</v>
+        <v>11048.29</v>
       </c>
       <c r="K8" t="n">
-        <v>11035.31</v>
+        <v>11012.76</v>
       </c>
       <c r="L8" t="n">
-        <v>11005.58</v>
+        <v>11038.68</v>
       </c>
       <c r="M8" t="n">
-        <v>11016.33</v>
+        <v>11026.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>11037.45</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11039.72</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>11005.46</v>
+      </c>
+      <c r="R8" t="n">
+        <v>11061.85</v>
+      </c>
+      <c r="S8" t="n">
+        <v>11063.64</v>
+      </c>
+      <c r="T8" t="n">
+        <v>11294.79</v>
+      </c>
+      <c r="U8" t="n">
+        <v>11057.7</v>
+      </c>
+      <c r="V8" t="n">
+        <v>11007.86</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11067.3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10984.12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11087.04</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11094.31</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10973.83</v>
       </c>
     </row>
     <row r="9">
@@ -803,39 +1167,79 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94597.02</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>94795.78999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>94848.10000000001</v>
+      </c>
       <c r="D9" t="n">
-        <v>94712.52</v>
+        <v>97285.24000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>94559.83</v>
+        <v>94703.32000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>94504.27</v>
+        <v>94839.45</v>
       </c>
       <c r="G9" t="n">
-        <v>94513.64999999999</v>
+        <v>94820.37</v>
       </c>
       <c r="H9" t="n">
-        <v>94682.16</v>
+        <v>94455.08</v>
       </c>
       <c r="I9" t="n">
-        <v>94690.67999999999</v>
+        <v>94842.81</v>
       </c>
       <c r="J9" t="n">
-        <v>94514.81</v>
+        <v>94819.64999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>94777.97</v>
+        <v>94472.50999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>94727.08</v>
+        <v>94514.28999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>94795.78999999999</v>
-      </c>
+        <v>94756.14999999999</v>
+      </c>
+      <c r="N9" t="n">
+        <v>94695.72</v>
+      </c>
+      <c r="O9" t="n">
+        <v>94483.03999999999</v>
+      </c>
+      <c r="P9" t="n">
+        <v>94767.59</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>94777.95</v>
+      </c>
+      <c r="R9" t="n">
+        <v>94430.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>94457.42999999999</v>
+      </c>
+      <c r="T9" t="n">
+        <v>94624.52</v>
+      </c>
+      <c r="U9" t="n">
+        <v>94766.48</v>
+      </c>
+      <c r="V9" t="n">
+        <v>94590.66</v>
+      </c>
+      <c r="W9" t="n">
+        <v>94694.52</v>
+      </c>
+      <c r="X9" t="n">
+        <v>94907.41</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>94671.60000000001</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -844,38 +1248,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4294.73</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>4296.52</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4298.88</v>
+      </c>
       <c r="D10" t="n">
-        <v>4275.52</v>
+        <v>4416.67</v>
       </c>
       <c r="E10" t="n">
-        <v>4301.82</v>
+        <v>4296.86</v>
       </c>
       <c r="F10" t="n">
-        <v>4273.28</v>
+        <v>4300.51</v>
       </c>
       <c r="G10" t="n">
-        <v>4279.97</v>
+        <v>4284.64</v>
       </c>
       <c r="H10" t="n">
-        <v>4293.63</v>
+        <v>4284.45</v>
       </c>
       <c r="I10" t="n">
-        <v>4301.93</v>
+        <v>4277.31</v>
       </c>
       <c r="J10" t="n">
-        <v>4297.14</v>
+        <v>4280.97</v>
       </c>
       <c r="K10" t="n">
-        <v>4301.22</v>
+        <v>4277.05</v>
       </c>
       <c r="L10" t="n">
-        <v>4274.57</v>
+        <v>4285.36</v>
       </c>
       <c r="M10" t="n">
-        <v>4296.52</v>
+        <v>4296.76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4286.22</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4289.12</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4290.58</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4282.42</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4291.49</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4292.43</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4289</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4301.52</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4287.39</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4295.83</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4298.41</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4300.1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>4295.56</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4287.37</v>
       </c>
     </row>
     <row r="11">
@@ -885,38 +1333,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12684.59</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>8010.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7978.82</v>
+      </c>
       <c r="D11" t="n">
-        <v>12690.48</v>
+        <v>8215.309999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>12678.4</v>
+        <v>8011.92</v>
       </c>
       <c r="F11" t="n">
-        <v>12723.1</v>
+        <v>7986.21</v>
       </c>
       <c r="G11" t="n">
-        <v>12694.39</v>
+        <v>7998.88</v>
       </c>
       <c r="H11" t="n">
-        <v>12702.11</v>
+        <v>7993.27</v>
       </c>
       <c r="I11" t="n">
-        <v>12721.32</v>
+        <v>7987.4</v>
       </c>
       <c r="J11" t="n">
-        <v>12720.7</v>
+        <v>8007.8</v>
       </c>
       <c r="K11" t="n">
-        <v>12719.72</v>
+        <v>7999.27</v>
       </c>
       <c r="L11" t="n">
-        <v>12686.55</v>
+        <v>7988.3</v>
       </c>
       <c r="M11" t="n">
-        <v>8010.6</v>
+        <v>7994.14</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7991.82</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8008.85</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8016.74</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7994.9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8005.58</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7993.05</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7976.54</v>
+      </c>
+      <c r="U11" t="n">
+        <v>8008.45</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7977.17</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7984.41</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8009.65</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8001.63</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8009.72</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7976.37</v>
       </c>
     </row>
     <row r="12">
@@ -926,38 +1418,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>316993.77</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>316236.17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>317055.14</v>
+      </c>
       <c r="D12" t="n">
-        <v>316777.85</v>
+        <v>324914.02</v>
       </c>
       <c r="E12" t="n">
-        <v>316365.78</v>
+        <v>316050.18</v>
       </c>
       <c r="F12" t="n">
-        <v>316001.18</v>
+        <v>316255.82</v>
       </c>
       <c r="G12" t="n">
-        <v>315975.65</v>
+        <v>317251.66</v>
       </c>
       <c r="H12" t="n">
-        <v>315870.35</v>
+        <v>316654.36</v>
       </c>
       <c r="I12" t="n">
-        <v>315916.95</v>
+        <v>317105.24</v>
       </c>
       <c r="J12" t="n">
-        <v>316607.51</v>
+        <v>316155.35</v>
       </c>
       <c r="K12" t="n">
-        <v>317130.74</v>
+        <v>316537.6</v>
       </c>
       <c r="L12" t="n">
-        <v>316902.31</v>
+        <v>316740.32</v>
       </c>
       <c r="M12" t="n">
-        <v>316236.17</v>
+        <v>316509.27</v>
+      </c>
+      <c r="N12" t="n">
+        <v>317227.12</v>
+      </c>
+      <c r="O12" t="n">
+        <v>316648.97</v>
+      </c>
+      <c r="P12" t="n">
+        <v>317066.8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>316868.97</v>
+      </c>
+      <c r="R12" t="n">
+        <v>317001.51</v>
+      </c>
+      <c r="S12" t="n">
+        <v>316347.63</v>
+      </c>
+      <c r="T12" t="n">
+        <v>316706.61</v>
+      </c>
+      <c r="U12" t="n">
+        <v>315963.85</v>
+      </c>
+      <c r="V12" t="n">
+        <v>316186.83</v>
+      </c>
+      <c r="W12" t="n">
+        <v>316965.68</v>
+      </c>
+      <c r="X12" t="n">
+        <v>315945.24</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>316838.43</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>316724.02</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>305624.01</v>
       </c>
     </row>
     <row r="13">
@@ -967,38 +1503,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557793.5699999999</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>525036.12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>525203.61</v>
+      </c>
       <c r="D13" t="n">
-        <v>548580.01</v>
+        <v>538714.1</v>
       </c>
       <c r="E13" t="n">
-        <v>546065.21</v>
+        <v>524555.6</v>
       </c>
       <c r="F13" t="n">
-        <v>549096.54</v>
+        <v>525940.75</v>
       </c>
       <c r="G13" t="n">
-        <v>549029.84</v>
+        <v>525443.8199999999</v>
       </c>
       <c r="H13" t="n">
-        <v>533949.39</v>
+        <v>525130.66</v>
       </c>
       <c r="I13" t="n">
-        <v>534149.9</v>
+        <v>526144.74</v>
       </c>
       <c r="J13" t="n">
-        <v>533907.6899999999</v>
+        <v>525152.46</v>
       </c>
       <c r="K13" t="n">
-        <v>526715.36</v>
+        <v>525100.64</v>
       </c>
       <c r="L13" t="n">
-        <v>524269.7</v>
+        <v>526168.74</v>
       </c>
       <c r="M13" t="n">
-        <v>525036.12</v>
+        <v>525970.58</v>
+      </c>
+      <c r="N13" t="n">
+        <v>465731.68</v>
+      </c>
+      <c r="O13" t="n">
+        <v>421154.91</v>
+      </c>
+      <c r="P13" t="n">
+        <v>421119.71</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>421131.98</v>
+      </c>
+      <c r="R13" t="n">
+        <v>419793.68</v>
+      </c>
+      <c r="S13" t="n">
+        <v>421088.68</v>
+      </c>
+      <c r="T13" t="n">
+        <v>420707.95</v>
+      </c>
+      <c r="U13" t="n">
+        <v>421820.22</v>
+      </c>
+      <c r="V13" t="n">
+        <v>420680.28</v>
+      </c>
+      <c r="W13" t="n">
+        <v>421271.93</v>
+      </c>
+      <c r="X13" t="n">
+        <v>419990.54</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>421274.61</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>420387.38</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>421269.31</v>
       </c>
     </row>
     <row r="14">
@@ -1008,38 +1588,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99614.5</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>100433.58</v>
+      </c>
+      <c r="C14" t="n">
+        <v>99133.91</v>
+      </c>
       <c r="D14" t="n">
-        <v>100822.19</v>
+        <v>78157.74000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>99007.10000000001</v>
+        <v>65700.10000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>99027.23</v>
+        <v>11609.39</v>
       </c>
       <c r="G14" t="n">
-        <v>100339.03</v>
+        <v>12566.26</v>
       </c>
       <c r="H14" t="n">
-        <v>98210.03</v>
+        <v>12061.54</v>
       </c>
       <c r="I14" t="n">
-        <v>99391.94</v>
+        <v>11305.2</v>
       </c>
       <c r="J14" t="n">
-        <v>98728.91</v>
+        <v>11707.09</v>
       </c>
       <c r="K14" t="n">
-        <v>99177.11</v>
+        <v>13108.88</v>
       </c>
       <c r="L14" t="n">
-        <v>100127.22</v>
+        <v>11522.44</v>
       </c>
       <c r="M14" t="n">
-        <v>100433.58</v>
+        <v>11488.76</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10491.52</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10260.07</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10939.05</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9285.639999999999</v>
+      </c>
+      <c r="R14" t="n">
+        <v>10140.94</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8867.08</v>
+      </c>
+      <c r="T14" t="n">
+        <v>9132.6</v>
+      </c>
+      <c r="U14" t="n">
+        <v>9178.92</v>
+      </c>
+      <c r="V14" t="n">
+        <v>10288.29</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10294.14</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10077.29</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10690.12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>10627.07</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10835.27</v>
       </c>
     </row>
     <row r="15">
@@ -1051,7 +1675,9 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
@@ -1080,6 +1706,48 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1090,40 +1758,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5890.31</v>
+        <v>6508.56</v>
       </c>
       <c r="C16" t="n">
-        <v>6494.77</v>
+        <v>6590.48</v>
       </c>
       <c r="D16" t="n">
-        <v>7096.01</v>
+        <v>6476.79</v>
       </c>
       <c r="E16" t="n">
-        <v>7466.64</v>
+        <v>5926.49</v>
       </c>
       <c r="F16" t="n">
-        <v>6481.33</v>
+        <v>6449.08</v>
       </c>
       <c r="G16" t="n">
-        <v>6329.17</v>
+        <v>7338.65</v>
       </c>
       <c r="H16" t="n">
-        <v>6136.53</v>
+        <v>6782.85</v>
       </c>
       <c r="I16" t="n">
-        <v>6371.15</v>
+        <v>6847.11</v>
       </c>
       <c r="J16" t="n">
-        <v>6449.26</v>
+        <v>6127.33</v>
       </c>
       <c r="K16" t="n">
-        <v>6452.81</v>
+        <v>6839.11</v>
       </c>
       <c r="L16" t="n">
-        <v>6627.78</v>
+        <v>6153.14</v>
       </c>
       <c r="M16" t="n">
-        <v>6508.56</v>
+        <v>6634.52</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7682.71</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6013.89</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6561.67</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>7369.04</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6878.02</v>
+      </c>
+      <c r="S16" t="n">
+        <v>7275.42</v>
+      </c>
+      <c r="T16" t="n">
+        <v>7310.46</v>
+      </c>
+      <c r="U16" t="n">
+        <v>7430.04</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7533.33</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8111.02</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5592.63</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>7566.46</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8045.98</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8169.85</v>
       </c>
     </row>
     <row r="17">
@@ -1133,40 +1843,82 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>804.88</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>812.36</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>806.04</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>768.67</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>618.63</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>658.99</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>617.28</v>
       </c>
       <c r="I17" t="n">
-        <v>901.0599999999999</v>
+        <v>604.22</v>
       </c>
       <c r="J17" t="n">
-        <v>876.2</v>
+        <v>531.97</v>
       </c>
       <c r="K17" t="n">
-        <v>849</v>
+        <v>602.9299999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>828.74</v>
+        <v>542.42</v>
       </c>
       <c r="M17" t="n">
-        <v>804.88</v>
+        <v>586.35</v>
+      </c>
+      <c r="N17" t="n">
+        <v>690.24</v>
+      </c>
+      <c r="O17" t="n">
+        <v>710.8200000000001</v>
+      </c>
+      <c r="P17" t="n">
+        <v>764</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>840.6799999999999</v>
+      </c>
+      <c r="R17" t="n">
+        <v>762.2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>804.7</v>
+      </c>
+      <c r="T17" t="n">
+        <v>797.6900000000001</v>
+      </c>
+      <c r="U17" t="n">
+        <v>807.71</v>
+      </c>
+      <c r="V17" t="n">
+        <v>816</v>
+      </c>
+      <c r="W17" t="n">
+        <v>855.74</v>
+      </c>
+      <c r="X17" t="n">
+        <v>953.75</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>880.95</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>906.6</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>915.22</v>
       </c>
     </row>
     <row r="18">
@@ -1176,40 +1928,82 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35588.8</v>
+        <v>25221.15</v>
       </c>
       <c r="C18" t="n">
-        <v>36244.61</v>
+        <v>26146.42</v>
       </c>
       <c r="D18" t="n">
-        <v>29979.03</v>
+        <v>25880.68</v>
       </c>
       <c r="E18" t="n">
-        <v>30439.62</v>
+        <v>26679.36</v>
       </c>
       <c r="F18" t="n">
-        <v>30236.09</v>
+        <v>25349.8</v>
       </c>
       <c r="G18" t="n">
-        <v>26015.97</v>
+        <v>26537.61</v>
       </c>
       <c r="H18" t="n">
-        <v>25681.86</v>
+        <v>26537.43</v>
       </c>
       <c r="I18" t="n">
-        <v>26102.63</v>
+        <v>25869.63</v>
       </c>
       <c r="J18" t="n">
-        <v>26023.52</v>
+        <v>26198.61</v>
       </c>
       <c r="K18" t="n">
-        <v>25910.5</v>
+        <v>25348.35</v>
       </c>
       <c r="L18" t="n">
-        <v>26036.98</v>
+        <v>26196.61</v>
       </c>
       <c r="M18" t="n">
-        <v>25221.15</v>
+        <v>25590.99</v>
+      </c>
+      <c r="N18" t="n">
+        <v>25165.57</v>
+      </c>
+      <c r="O18" t="n">
+        <v>25363.83</v>
+      </c>
+      <c r="P18" t="n">
+        <v>25545.17</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>25888.19</v>
+      </c>
+      <c r="R18" t="n">
+        <v>26677.99</v>
+      </c>
+      <c r="S18" t="n">
+        <v>26387.19</v>
+      </c>
+      <c r="T18" t="n">
+        <v>21364.07</v>
+      </c>
+      <c r="U18" t="n">
+        <v>20417.28</v>
+      </c>
+      <c r="V18" t="n">
+        <v>20677.97</v>
+      </c>
+      <c r="W18" t="n">
+        <v>21536.09</v>
+      </c>
+      <c r="X18" t="n">
+        <v>21515.02</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>21152.94</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>20151.81</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>20681.4</v>
       </c>
     </row>
     <row r="19">
@@ -1254,6 +2048,48 @@
       <c r="M19" t="n">
         <v>0</v>
       </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1262,151 +2098,252 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11655.46</v>
+        <v>11881.19</v>
       </c>
       <c r="C20" t="n">
-        <v>11703.27</v>
+        <v>11739.72</v>
       </c>
       <c r="D20" t="n">
-        <v>11695.21</v>
+        <v>11956.28</v>
       </c>
       <c r="E20" t="n">
-        <v>11883.09</v>
+        <v>11866.16</v>
       </c>
       <c r="F20" t="n">
-        <v>11805.07</v>
+        <v>11954.23</v>
       </c>
       <c r="G20" t="n">
-        <v>11924.04</v>
+        <v>11947.07</v>
       </c>
       <c r="H20" t="n">
-        <v>11686.62</v>
+        <v>11797.87</v>
       </c>
       <c r="I20" t="n">
-        <v>11630.75</v>
+        <v>11940</v>
       </c>
       <c r="J20" t="n">
-        <v>11737.71</v>
+        <v>11678.54</v>
       </c>
       <c r="K20" t="n">
-        <v>11665.11</v>
+        <v>11733.74</v>
       </c>
       <c r="L20" t="n">
-        <v>11820.16</v>
+        <v>11706.24</v>
       </c>
       <c r="M20" t="n">
-        <v>11881.19</v>
+        <v>11642.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11743.17</v>
+      </c>
+      <c r="O20" t="n">
+        <v>11726.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>11925.79</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>11779.75</v>
+      </c>
+      <c r="R20" t="n">
+        <v>11834.77</v>
+      </c>
+      <c r="S20" t="n">
+        <v>11667.76</v>
+      </c>
+      <c r="T20" t="n">
+        <v>11911</v>
+      </c>
+      <c r="U20" t="n">
+        <v>11675.66</v>
+      </c>
+      <c r="V20" t="n">
+        <v>11756.1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>11732.42</v>
+      </c>
+      <c r="X20" t="n">
+        <v>11863.77</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>11870.05</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>11715.58</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>11706.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20730.87</v>
+        <v>73593.89</v>
       </c>
       <c r="C21" t="n">
-        <v>20804.67</v>
+        <v>73633.97</v>
       </c>
       <c r="D21" t="n">
-        <v>21025.98</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+        <v>74111.67</v>
+      </c>
+      <c r="E21" t="n">
+        <v>69701.35000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>66659.72</v>
+      </c>
+      <c r="G21" t="n">
+        <v>66999.97</v>
+      </c>
+      <c r="H21" t="n">
+        <v>66812.55</v>
+      </c>
+      <c r="I21" t="n">
+        <v>66774.60000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>66784.31</v>
+      </c>
+      <c r="K21" t="n">
+        <v>66964.87</v>
+      </c>
+      <c r="L21" t="n">
+        <v>66951.63</v>
+      </c>
+      <c r="M21" t="n">
+        <v>66711.57000000001</v>
+      </c>
+      <c r="N21" t="n">
+        <v>63836.72</v>
+      </c>
+      <c r="O21" t="n">
+        <v>61395.22</v>
+      </c>
+      <c r="P21" t="n">
+        <v>61250.14</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>61362.43</v>
+      </c>
+      <c r="R21" t="n">
+        <v>61414.87</v>
+      </c>
+      <c r="S21" t="n">
+        <v>61170.07</v>
+      </c>
+      <c r="T21" t="n">
+        <v>61315.11</v>
+      </c>
+      <c r="U21" t="n">
+        <v>60950.37</v>
+      </c>
+      <c r="V21" t="n">
+        <v>61008.52</v>
+      </c>
+      <c r="W21" t="n">
+        <v>61081.09</v>
+      </c>
+      <c r="X21" t="n">
+        <v>60783.01</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>61228.65</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>59109.11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>58698.12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73064.74000000001</v>
+        <v>1398283.88</v>
       </c>
       <c r="C22" t="n">
-        <v>29225.82</v>
+        <v>1399045.42</v>
       </c>
       <c r="D22" t="n">
-        <v>72182.3</v>
+        <v>1408121.66</v>
       </c>
       <c r="E22" t="n">
-        <v>74689.66</v>
+        <v>1324325.57</v>
       </c>
       <c r="F22" t="n">
-        <v>75057.87</v>
+        <v>1266534.63</v>
       </c>
       <c r="G22" t="n">
-        <v>74723.34</v>
+        <v>1272999.45</v>
       </c>
       <c r="H22" t="n">
-        <v>73703.92999999999</v>
+        <v>1269438.43</v>
       </c>
       <c r="I22" t="n">
-        <v>74000.27</v>
+        <v>1268717.35</v>
       </c>
       <c r="J22" t="n">
-        <v>73946.78999999999</v>
+        <v>1268901.83</v>
       </c>
       <c r="K22" t="n">
-        <v>73762.39999999999</v>
+        <v>1272332.51</v>
       </c>
       <c r="L22" t="n">
-        <v>73380.25999999999</v>
+        <v>1272081.05</v>
       </c>
       <c r="M22" t="n">
-        <v>73593.89</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1461294.85</v>
-      </c>
-      <c r="C23" t="n">
-        <v>379935.69</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1443645.99</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1419103.61</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1426099.52</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1419743.54</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1400374.68</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1406005.07</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1404989.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1401485.55</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1394224.98</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1398283.88</v>
+        <v>1267519.75</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1212897.71</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1166509.24</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1163752.65</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1165886.21</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1166882.46</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1162231.38</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1164987.02</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1158056.95</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1159161.84</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1160540.75</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1154877.26</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1163344.44</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1063963.99</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1056566.14</v>
       </c>
     </row>
   </sheetData>
